--- a/python/data/data.xlsx
+++ b/python/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79814\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_WORKSPACE\Github\220415-ReadingNotes\python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6950BD55-B793-4BC6-8F3F-75C84E701679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD55B98-A5EC-4E7F-85DE-FF27D82319AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,19 +91,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000000000000000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000000E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -131,7 +131,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -417,19 +417,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="12" max="12" width="25.08203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.9140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,9 +476,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -517,9 +517,9 @@
         <v>4.7199999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -558,9 +558,9 @@
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -599,9 +599,9 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -640,9 +640,9 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -681,9 +681,9 @@
         <v>9.4600000000000004E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -722,9 +722,9 @@
         <v>8.1600000000000006E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -763,9 +763,9 @@
         <v>5.8099999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -804,9 +804,9 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -845,9 +845,9 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -886,9 +886,9 @@
         <v>5.9299999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -927,9 +927,9 @@
         <v>6.1199999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -968,9 +968,9 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1009,9 +1009,9 @@
         <v>6.8599999999999994E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1050,9 +1050,9 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1091,9 +1091,9 @@
         <v>2.3900000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1132,9 +1132,9 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1173,9 +1173,9 @@
         <v>4.6300000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1214,9 +1214,9 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1255,9 +1255,9 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1296,9 +1296,9 @@
         <v>7.8899999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1337,9 +1337,9 @@
         <v>4.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1378,9 +1378,9 @@
         <v>6.0400000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1419,9 +1419,9 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1460,9 +1460,9 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1501,9 +1501,9 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1542,9 +1542,9 @@
         <v>3.4299999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1583,9 +1583,9 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1624,9 +1624,9 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1665,9 +1665,9 @@
         <v>6.3299999999999995E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1706,9 +1706,9 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1747,9 +1747,9 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1788,9 +1788,9 @@
         <v>7.3099999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1829,9 +1829,9 @@
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1870,9 +1870,9 @@
         <v>3.73E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1911,9 +1911,9 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1952,9 +1952,9 @@
         <v>5.3400000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1993,9 +1993,9 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2034,9 +2034,9 @@
         <v>7.9699999999999993E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2075,9 +2075,9 @@
         <v>5.5899999999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2116,9 +2116,9 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2157,9 +2157,9 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2198,9 +2198,9 @@
         <v>6.5799999999999997E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -2239,9 +2239,9 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2280,9 +2280,9 @@
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -2321,9 +2321,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2362,9 +2362,9 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2403,9 +2403,9 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -2444,9 +2444,9 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -2485,9 +2485,9 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2526,9 +2526,9 @@
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2567,9 +2567,9 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2608,9 +2608,9 @@
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -2649,9 +2649,9 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2690,9 +2690,9 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2731,9 +2731,9 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -2772,9 +2772,9 @@
         <v>4.5600000000000002E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -2813,9 +2813,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -2854,9 +2854,9 @@
         <v>3.9899999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -2895,9 +2895,9 @@
         <v>4.58E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -2936,9 +2936,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2977,9 +2977,9 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3018,9 +3018,9 @@
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -3059,9 +3059,9 @@
         <v>3.44E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -3100,9 +3100,9 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -3141,9 +3141,9 @@
         <v>3.4599999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -3182,9 +3182,9 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -3223,9 +3223,9 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3264,9 +3264,9 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70">
         <v>1</v>
